--- a/Scripts/01-config/02-modele-grille.xlsx
+++ b/Scripts/01-config/02-modele-grille.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09-P_Appro\PS-Eval\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09-P_Appro\PS-Eval\Scripts\01-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED682DA-6A44-48FB-9954-CD150E5746A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654841E-E071-4B57-A4C6-9968AF49C96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F219C5-3CFD-461A-AEFF-1CF380BD0F9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F219C5-3CFD-461A-AEFF-1CF380BD0F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -1147,6 +1147,68 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
@@ -1163,68 +1225,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1836,26 +1836,26 @@
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="56"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="55" t="s">
         <v>29</v>
       </c>
@@ -1869,10 +1869,10 @@
       <c r="U5"/>
     </row>
     <row r="6" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="89" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -1920,8 +1920,8 @@
       <c r="U6"/>
     </row>
     <row r="7" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="49" t="s">
         <v>22</v>
       </c>
@@ -1962,8 +1962,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="49" t="s">
         <v>21</v>
       </c>
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="49" t="s">
         <v>20</v>
       </c>
@@ -2046,8 +2046,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
-      <c r="B10" s="100" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="92" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -2090,8 +2090,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="49" t="s">
         <v>17</v>
       </c>
@@ -2133,8 +2133,8 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="49" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2175,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="34" t="s">
         <v>15</v>
       </c>
@@ -2225,81 +2225,81 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="78" t="s">
+      <c r="O14" s="98" t="s">
         <v>7</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:21" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="J15" s="79" t="s">
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="J15" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="78"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="98"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="J16" s="80" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="J16" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
       <c r="K17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
       <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
       <c r="N18" s="7" t="s">
         <v>1</v>
       </c>
@@ -2309,9 +2309,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2380,6 +2380,17 @@
     <protectedRange sqref="D6:Q13 L15 L16 L17 A15:H18" name="Cellules modifiables"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:L5"/>
@@ -2387,17 +2398,6 @@
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">

--- a/Scripts/01-config/02-modele-grille.xlsx
+++ b/Scripts/01-config/02-modele-grille.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09-P_Appro\PS-Eval\Scripts\01-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654841E-E071-4B57-A4C6-9968AF49C96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E97EC5-F577-4FF5-806E-CF84373A8AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F219C5-3CFD-461A-AEFF-1CF380BD0F9C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F219C5-3CFD-461A-AEFF-1CF380BD0F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="CLASSE">MASTER!$E$3</definedName>
+    <definedName name="CLASSROOM">MASTER!$E$3</definedName>
     <definedName name="cst_A">MASTER!$S$3</definedName>
     <definedName name="cst_ERR">MASTER!$S$6</definedName>
     <definedName name="cst_ignore">MASTER!$T$1</definedName>
@@ -26,6 +27,7 @@
     <definedName name="cst_NA">MASTER!$S$5</definedName>
     <definedName name="cst_PA">MASTER!$S$4</definedName>
     <definedName name="DATES">MASTER!$J$4</definedName>
+    <definedName name="DATESMERGED">MASTER!$J$4</definedName>
     <definedName name="FINALNOTE">MASTER!$Q$18</definedName>
     <definedName name="NAME">MASTER!$E$2</definedName>
     <definedName name="NBWEEKS">MASTER!$J$3</definedName>
@@ -239,22 +241,22 @@
     <t xml:space="preserve">ÉVALUATION DES COMPÉTENCES EN PRATIQUE POUR LA FORMATION </t>
   </si>
   <si>
-    <t>[NAME]</t>
-  </si>
-  <si>
-    <t>[CLASSE]</t>
-  </si>
-  <si>
-    <t>[TEACHER]</t>
-  </si>
-  <si>
-    <t>[PROJECTNAME]</t>
-  </si>
-  <si>
-    <t>[NBWEEKS]</t>
-  </si>
-  <si>
-    <t>[DATES]</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
+    <t>PROJECTNAME</t>
+  </si>
+  <si>
+    <t>NBWEEKS</t>
+  </si>
+  <si>
+    <t>DATESMERGED</t>
+  </si>
+  <si>
+    <t>CLASSROOM</t>
   </si>
 </sst>
 </file>
@@ -1698,10 +1700,10 @@
   <sheetPr codeName="Feuil3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1757,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="71"/>
       <c r="L2" s="71"/>
@@ -1778,7 +1780,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
@@ -1787,7 +1789,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="68"/>
       <c r="L3" s="67"/>
@@ -1810,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
@@ -1819,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="58"/>
@@ -2374,10 +2376,13 @@
         <v>6</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="D6:Q13 L15 L16 L17 A15:H18" name="Cellules modifiables"/>
+    <protectedRange sqref="L15:L17 A15:H18 D6:Q13" name="Cellules modifiables"/>
   </protectedRanges>
   <mergeCells count="18">
     <mergeCell ref="O14:O15"/>

--- a/Scripts/01-config/02-modele-grille.xlsx
+++ b/Scripts/01-config/02-modele-grille.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09-P_Appro\PS-Eval\Scripts\01-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E97EC5-F577-4FF5-806E-CF84373A8AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F499DF6-2827-4671-A067-C7D94528D0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F219C5-3CFD-461A-AEFF-1CF380BD0F9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51F219C5-3CFD-461A-AEFF-1CF380BD0F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CLASSE">MASTER!$E$3</definedName>
     <definedName name="CLASSROOM">MASTER!$E$3</definedName>
     <definedName name="cst_A">MASTER!$S$3</definedName>
     <definedName name="cst_ERR">MASTER!$S$6</definedName>
@@ -26,14 +25,13 @@
     <definedName name="cst_LA">MASTER!$S$2</definedName>
     <definedName name="cst_NA">MASTER!$S$5</definedName>
     <definedName name="cst_PA">MASTER!$S$4</definedName>
-    <definedName name="DATES">MASTER!$J$4</definedName>
     <definedName name="DATESMERGED">MASTER!$J$4</definedName>
-    <definedName name="FINALNOTE">MASTER!$Q$18</definedName>
+    <definedName name="FINALNOTE">MASTER!$Q$19</definedName>
     <definedName name="NAME">MASTER!$E$2</definedName>
     <definedName name="NBWEEKS">MASTER!$J$3</definedName>
     <definedName name="PROJECTNAME">MASTER!$J$2</definedName>
     <definedName name="TEACHER">MASTER!$E$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MASTER!$A$1:$Q$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MASTER!$A$1:$Q$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>Notes</t>
   </si>
@@ -241,22 +239,25 @@
     <t xml:space="preserve">ÉVALUATION DES COMPÉTENCES EN PRATIQUE POUR LA FORMATION </t>
   </si>
   <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
+    <t>PROJECTNAME</t>
+  </si>
+  <si>
+    <t>NBWEEKS</t>
+  </si>
+  <si>
+    <t>DATESMERGED</t>
+  </si>
+  <si>
+    <t>CLASSROOM</t>
+  </si>
+  <si>
+    <t>la daronne</t>
+  </si>
+  <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>TEACHER</t>
-  </si>
-  <si>
-    <t>PROJECTNAME</t>
-  </si>
-  <si>
-    <t>NBWEEKS</t>
-  </si>
-  <si>
-    <t>DATESMERGED</t>
-  </si>
-  <si>
-    <t>CLASSROOM</t>
   </si>
 </sst>
 </file>
@@ -1700,10 +1701,10 @@
   <sheetPr codeName="Feuil3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
@@ -1757,7 +1758,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="71"/>
       <c r="L2" s="71"/>
@@ -1780,7 +1781,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
@@ -1789,7 +1790,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="68"/>
       <c r="L3" s="67"/>
@@ -1812,7 +1813,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
@@ -1821,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="58"/>
@@ -2136,9 +2137,9 @@
     </row>
     <row r="12" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87"/>
-      <c r="B12" s="94"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="49" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>10</v>
@@ -2175,88 +2176,110 @@
         <f t="array" ref="Q12">IF(P12=cst_ignore_VRAI,cst_ignore,IF(COUNTA(F12,I12,L12,O12)&gt;1,cst_ERR,CONCATENATE(F12,I12,L12,O12)))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="34" t="s">
+      <c r="R12" s="50"/>
+    </row>
+    <row r="13" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35" t="str" cm="1">
+        <f t="array" ref="Q13">IF(P13=cst_ignore_VRAI,cst_ignore,IF(COUNTA(F13,I13,L13,O13)&gt;1,cst_ERR,CONCATENATE(F13,I13,L13,O13)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="18" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="28" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="25" t="s">
+      <c r="I14" s="27"/>
+      <c r="J14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="22" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20" t="b">
+      <c r="O14" s="21"/>
+      <c r="P14" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" s="19" t="str" cm="1">
-        <f t="array" ref="Q13">IF(P13=cst_ignore_VRAI,cst_ignore,IF(COUNTA(F13,I13,L13,O13)&gt;1,cst_ERR,CONCATENATE(F13,I13,L13,O13)))</f>
+      <c r="Q14" s="19" t="str" cm="1">
+        <f t="array" ref="Q14">IF(P14=cst_ignore_VRAI,cst_ignore,IF(COUNTA(F14,I14,L14,O14)&gt;1,cst_ERR,CONCATENATE(F14,I14,L14,O14)))</f>
         <v>Ignoré</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="7" customFormat="1" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:21" s="7" customFormat="1" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="98" t="s">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="1:21" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="J15" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="98"/>
       <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97"/>
@@ -2265,19 +2288,20 @@
       <c r="F16" s="97"/>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
-      <c r="J16" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+      <c r="J16" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="99"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="96" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="97"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -2285,13 +2309,16 @@
       <c r="F17" s="97"/>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
-      <c r="K17" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="J17" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="100"/>
       <c r="L17" s="101"/>
       <c r="M17" s="101"/>
       <c r="N17" s="101"/>
-      <c r="Q17" s="9"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
@@ -2302,109 +2329,126 @@
       <c r="F18" s="97"/>
       <c r="G18" s="97"/>
       <c r="H18" s="97"/>
-      <c r="N18" s="7" t="s">
+      <c r="K18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="N19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q18" s="8" t="str">
-        <f>IF(COUNTIF(Q6:Q13,cst_ERR)&gt;0,cst_ERR,IF(COUNTIF(Q6:Q13,cst_NA)&gt;0,cst_NA,IF(COUNTIF(Q6:Q13,cst_PA)&gt;0,cst_PA,IF(COUNTIF(Q6:Q13,cst_A)&gt;=COUNTIF(Q6:Q13,cst_LA),IF(COUNTIF(Q6:Q13,cst_A)=0,"",cst_A),cst_LA))))</f>
+      <c r="Q19" s="8" t="str">
+        <f>IF(COUNTIF(Q6:Q14,cst_ERR)&gt;0,cst_ERR,IF(COUNTIF(Q6:Q14,cst_NA)&gt;0,cst_NA,IF(COUNTIF(Q6:Q14,cst_PA)&gt;0,cst_PA,IF(COUNTIF(Q6:Q14,cst_A)&gt;=COUNTIF(Q6:Q14,cst_LA),IF(COUNTIF(Q6:Q14,cst_A)=0,"",cst_A),cst_LA))))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="20" spans="1:17" ht="20.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>5.5</v>
       </c>
     </row>
     <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="L15:L17 A15:H18 D6:Q13" name="Cellules modifiables"/>
+    <protectedRange sqref="L16:L18 A16:H19 D6:Q14" name="Cellules modifiables"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="O15:O16"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L16:N16"/>
     <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="K20:M20"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="Q19">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>cst_LA</formula>
     </cfRule>
@@ -2421,12 +2465,12 @@
       <formula>cst_ERR</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:Q13">
+  <conditionalFormatting sqref="C6:Q14">
     <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>IF($Q6=cst_ignore,"VRAI","FAUX")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q13">
+  <conditionalFormatting sqref="Q6:Q14">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>IF($Q6=cst_LA,"VRAI","FAUX")</formula>
     </cfRule>
@@ -2434,7 +2478,7 @@
       <formula>IF($Q6=cst_ERR,"VRAI","FAUX")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q13">
+  <conditionalFormatting sqref="Q6:Q14">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>IF($Q6=cst_A,"VRAI","FAUX")</formula>
     </cfRule>
@@ -2445,25 +2489,25 @@
       <formula>IF($Q6=cst_NA,"VRAI","FAUX")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:Q13">
+  <conditionalFormatting sqref="C14:Q14">
     <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>IF($Q13=$T$1,"VRAI","FAUX")</formula>
+      <formula>IF($Q14=$T$1,"VRAI","FAUX")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P13" xr:uid="{3ED61294-1AFF-4B6F-A23B-0D452A09704A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P14" xr:uid="{3ED61294-1AFF-4B6F-A23B-0D452A09704A}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O13" xr:uid="{A1504BE9-3FC5-4420-A142-98CD1BC20F5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O14" xr:uid="{A1504BE9-3FC5-4420-A142-98CD1BC20F5B}">
       <formula1>$S$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L13" xr:uid="{15CCC5BF-36DE-4AAB-AAF8-AA966AB35A04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L14" xr:uid="{15CCC5BF-36DE-4AAB-AAF8-AA966AB35A04}">
       <formula1>$S$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I13" xr:uid="{D690770D-84D8-44E4-A0FE-54FA6239E7D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I14" xr:uid="{D690770D-84D8-44E4-A0FE-54FA6239E7D0}">
       <formula1>$S$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F13" xr:uid="{6175D4F3-4269-4D4F-BABA-7CDDBFA70DB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F14" xr:uid="{6175D4F3-4269-4D4F-BABA-7CDDBFA70DB8}">
       <formula1>$S$2</formula1>
     </dataValidation>
   </dataValidations>
